--- a/downloads/RSBT Risk Decomp 09.03.24.xlsx
+++ b/downloads/RSBT Risk Decomp 09.03.24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Measures - Aug 28, 2024 to Aug 29, 2024</t>
+          <t>Measures - Aug 29, 2024 to Aug 30, 2024</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/3/2024 5:30:07 AM</t>
+          <t>9/3/2024 11:20:17 AM</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>95716815.81999999</v>
+        <v>95495590.68000001</v>
       </c>
     </row>
     <row r="13">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.883767</v>
+        <v>2.785627</v>
       </c>
       <c r="C13" t="n">
-        <v>2.732771</v>
+        <v>2.632485</v>
       </c>
       <c r="D13" t="n">
-        <v>2.863704</v>
+        <v>2.719929</v>
       </c>
       <c r="E13" t="n">
-        <v>2.637389</v>
+        <v>2.488275</v>
       </c>
       <c r="F13" t="n">
-        <v>2.471548</v>
+        <v>2.377778</v>
       </c>
       <c r="G13" t="n">
-        <v>5.635787</v>
+        <v>5.636</v>
       </c>
       <c r="H13" t="n">
-        <v>4.713234</v>
+        <v>4.755402</v>
       </c>
       <c r="I13" t="n">
-        <v>1.854315</v>
+        <v>1.83363</v>
       </c>
       <c r="J13" t="n">
-        <v>5.213036</v>
+        <v>5.089922</v>
       </c>
       <c r="K13" t="n">
-        <v>6.308293</v>
+        <v>6.303036</v>
       </c>
       <c r="L13" t="n">
-        <v>8.327569</v>
+        <v>8.094274</v>
       </c>
       <c r="M13" t="n">
-        <v>7957755</v>
+        <v>7717230</v>
       </c>
     </row>
     <row r="14">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.138934</v>
+        <v>5.92088</v>
       </c>
       <c r="C14" t="n">
-        <v>6.231693</v>
+        <v>6.644637</v>
       </c>
       <c r="D14" t="n">
-        <v>4.31977</v>
+        <v>4.082883</v>
       </c>
       <c r="E14" t="n">
-        <v>3.770339</v>
+        <v>3.530106</v>
       </c>
       <c r="F14" t="n">
-        <v>4.83739</v>
+        <v>4.64756</v>
       </c>
       <c r="G14" t="n">
-        <v>6.406703</v>
+        <v>6.403298</v>
       </c>
       <c r="H14" t="n">
-        <v>5.739433</v>
+        <v>6.415965</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4937</v>
+        <v>1.471264</v>
       </c>
       <c r="J14" t="n">
-        <v>3.979644</v>
+        <v>3.859846</v>
       </c>
       <c r="K14" t="n">
-        <v>6.593276</v>
+        <v>6.58526</v>
       </c>
       <c r="L14" t="n">
-        <v>15.594481</v>
+        <v>15.142879</v>
       </c>
       <c r="M14" t="n">
-        <v>14901956.25</v>
+        <v>14437500</v>
       </c>
     </row>
     <row r="15">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.363407</v>
+        <v>-0.269964</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.456927</v>
+        <v>-0.409504</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004065</v>
+        <v>0.00552</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.13321</v>
+        <v>-0.077971</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.275462</v>
+        <v>-0.206042</v>
       </c>
       <c r="G15" t="n">
-        <v>5.515675</v>
+        <v>5.479237</v>
       </c>
       <c r="H15" t="n">
-        <v>6.120314</v>
+        <v>7.420713</v>
       </c>
       <c r="I15" t="n">
-        <v>0.020444</v>
+        <v>-0.037333</v>
       </c>
       <c r="J15" t="n">
-        <v>2.044866</v>
+        <v>1.599976</v>
       </c>
       <c r="K15" t="n">
-        <v>5.460278</v>
+        <v>5.478977</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.072278</v>
+        <v>-0.806886</v>
       </c>
       <c r="M15" t="n">
-        <v>-1024660</v>
+        <v>-769300</v>
       </c>
     </row>
     <row r="16">
@@ -751,40 +751,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.627117</v>
+        <v>0.885894</v>
       </c>
       <c r="C16" t="n">
-        <v>0.80597</v>
+        <v>1.125334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.565209</v>
+        <v>0.783412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.499585</v>
+        <v>0.680198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.533877</v>
+        <v>0.750795</v>
       </c>
       <c r="G16" t="n">
-        <v>3.054492</v>
+        <v>3.056646</v>
       </c>
       <c r="H16" t="n">
-        <v>3.464422</v>
+        <v>3.466715</v>
       </c>
       <c r="I16" t="n">
-        <v>0.912139</v>
+        <v>0.900657</v>
       </c>
       <c r="J16" t="n">
-        <v>2.46106</v>
+        <v>2.372812</v>
       </c>
       <c r="K16" t="n">
-        <v>3.396101</v>
+        <v>3.39403</v>
       </c>
       <c r="L16" t="n">
-        <v>3.341349</v>
+        <v>4.746379</v>
       </c>
       <c r="M16" t="n">
-        <v>3192965</v>
+        <v>4525285</v>
       </c>
     </row>
     <row r="17">
@@ -794,40 +794,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.642802</v>
+        <v>1.499965</v>
       </c>
       <c r="C17" t="n">
-        <v>1.454014</v>
+        <v>2.12839</v>
       </c>
       <c r="D17" t="n">
-        <v>1.518125</v>
+        <v>1.333251</v>
       </c>
       <c r="E17" t="n">
-        <v>1.128647</v>
+        <v>1.008424</v>
       </c>
       <c r="F17" t="n">
-        <v>1.120482</v>
+        <v>1.015584</v>
       </c>
       <c r="G17" t="n">
-        <v>6.722921</v>
+        <v>6.740621</v>
       </c>
       <c r="H17" t="n">
-        <v>5.251248</v>
+        <v>8.539712</v>
       </c>
       <c r="I17" t="n">
-        <v>2.058455</v>
+        <v>1.996351</v>
       </c>
       <c r="J17" t="n">
-        <v>4.671462</v>
+        <v>4.581697</v>
       </c>
       <c r="K17" t="n">
-        <v>5.98861</v>
+        <v>5.979502</v>
       </c>
       <c r="L17" t="n">
-        <v>3.976856</v>
+        <v>3.644242</v>
       </c>
       <c r="M17" t="n">
-        <v>3800250</v>
+        <v>3474487.5</v>
       </c>
     </row>
     <row r="18">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.016604</v>
+        <v>4.675148</v>
       </c>
       <c r="C18" t="n">
-        <v>4.75144</v>
+        <v>5.873849</v>
       </c>
       <c r="D18" t="n">
-        <v>4.308948</v>
+        <v>4.925139</v>
       </c>
       <c r="E18" t="n">
-        <v>3.532427</v>
+        <v>3.864778</v>
       </c>
       <c r="F18" t="n">
-        <v>3.37119</v>
+        <v>3.911223</v>
       </c>
       <c r="G18" t="n">
-        <v>9.929867</v>
+        <v>9.928997000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>10.366471</v>
+        <v>11.137971</v>
       </c>
       <c r="I18" t="n">
-        <v>3.529529</v>
+        <v>3.485256</v>
       </c>
       <c r="J18" t="n">
-        <v>8.832419</v>
+        <v>8.298494</v>
       </c>
       <c r="K18" t="n">
-        <v>10.88469</v>
+        <v>10.883112</v>
       </c>
       <c r="L18" t="n">
-        <v>6.583066</v>
+        <v>7.711093</v>
       </c>
       <c r="M18" t="n">
-        <v>6293590.17</v>
+        <v>7341933.96</v>
       </c>
     </row>
     <row r="19">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.867841</v>
+        <v>7.225618</v>
       </c>
       <c r="C19" t="n">
-        <v>8.520488</v>
+        <v>7.372647</v>
       </c>
       <c r="D19" t="n">
-        <v>8.152117000000001</v>
+        <v>7.307985</v>
       </c>
       <c r="E19" t="n">
-        <v>7.431344</v>
+        <v>6.634811</v>
       </c>
       <c r="F19" t="n">
-        <v>7.177714</v>
+        <v>6.562522</v>
       </c>
       <c r="G19" t="n">
-        <v>3.545983</v>
+        <v>3.548225</v>
       </c>
       <c r="H19" t="n">
-        <v>3.388963</v>
+        <v>3.232458</v>
       </c>
       <c r="I19" t="n">
-        <v>1.217342</v>
+        <v>1.195749</v>
       </c>
       <c r="J19" t="n">
-        <v>3.387432</v>
+        <v>3.294044</v>
       </c>
       <c r="K19" t="n">
-        <v>4.224893</v>
+        <v>4.222186</v>
       </c>
       <c r="L19" t="n">
-        <v>36.110332</v>
+        <v>33.349537</v>
       </c>
       <c r="M19" t="n">
-        <v>34506731.25</v>
+        <v>31796062.5</v>
       </c>
     </row>
     <row r="20">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.803467</v>
+        <v>4.47133</v>
       </c>
       <c r="C20" t="n">
-        <v>5.752124</v>
+        <v>5.91281</v>
       </c>
       <c r="D20" t="n">
-        <v>5.224731</v>
+        <v>4.771244</v>
       </c>
       <c r="E20" t="n">
-        <v>4.187737</v>
+        <v>3.668938</v>
       </c>
       <c r="F20" t="n">
-        <v>3.923747</v>
+        <v>3.64063</v>
       </c>
       <c r="G20" t="n">
-        <v>9.977866000000001</v>
+        <v>9.976988</v>
       </c>
       <c r="H20" t="n">
-        <v>10.544656</v>
+        <v>11.779584</v>
       </c>
       <c r="I20" t="n">
-        <v>3.595902</v>
+        <v>3.547321</v>
       </c>
       <c r="J20" t="n">
-        <v>8.79801</v>
+        <v>8.276901000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>10.644674</v>
+        <v>10.643142</v>
       </c>
       <c r="L20" t="n">
-        <v>7.834833</v>
+        <v>7.339445</v>
       </c>
       <c r="M20" t="n">
-        <v>7490313.29</v>
+        <v>6988078.62</v>
       </c>
     </row>
     <row r="21">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.056793</v>
+        <v>16.160479</v>
       </c>
       <c r="C21" t="n">
-        <v>16.58773</v>
+        <v>13.403886</v>
       </c>
       <c r="D21" t="n">
-        <v>15.495338</v>
+        <v>15.510944</v>
       </c>
       <c r="E21" t="n">
-        <v>18.402653</v>
+        <v>18.456186</v>
       </c>
       <c r="F21" t="n">
-        <v>13.886154</v>
+        <v>13.869092</v>
       </c>
       <c r="G21" t="n">
-        <v>11.01708</v>
+        <v>11.039023</v>
       </c>
       <c r="H21" t="n">
-        <v>10.044215</v>
+        <v>8.174863</v>
       </c>
       <c r="I21" t="n">
-        <v>3.522653</v>
+        <v>3.530375</v>
       </c>
       <c r="J21" t="n">
-        <v>12.770569</v>
+        <v>12.746271</v>
       </c>
       <c r="K21" t="n">
-        <v>12.443376</v>
+        <v>12.412378</v>
       </c>
       <c r="L21" t="n">
-        <v>23.719463</v>
+        <v>23.974495</v>
       </c>
       <c r="M21" t="n">
-        <v>22676453</v>
+        <v>22826747.27</v>
       </c>
     </row>
     <row r="22">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.205889</v>
+        <v>0.203927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.079093</v>
+        <v>0.093198</v>
       </c>
       <c r="D22" t="n">
-        <v>0.316334</v>
+        <v>0.316864</v>
       </c>
       <c r="E22" t="n">
-        <v>0.417003</v>
+        <v>0.440036</v>
       </c>
       <c r="F22" t="n">
-        <v>0.323121</v>
+        <v>0.319024</v>
       </c>
       <c r="G22" t="n">
         <v>0.084216</v>
       </c>
       <c r="H22" t="n">
-        <v>0.028551</v>
+        <v>0.034364</v>
       </c>
       <c r="I22" t="n">
-        <v>0.042872</v>
+        <v>0.043601</v>
       </c>
       <c r="J22" t="n">
-        <v>0.172514</v>
+        <v>0.183728</v>
       </c>
       <c r="K22" t="n">
         <v>0.172614</v>
       </c>
       <c r="L22" t="n">
-        <v>39.787716</v>
+        <v>39.65552</v>
       </c>
       <c r="M22" t="n">
-        <v>38178450.17</v>
+        <v>37962053.69</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.38505</v>
+        <v>7.633804</v>
       </c>
       <c r="C23" t="n">
-        <v>7.760782</v>
+        <v>10.003993</v>
       </c>
       <c r="D23" t="n">
-        <v>6.001655</v>
+        <v>6.075913</v>
       </c>
       <c r="E23" t="n">
-        <v>4.442143</v>
+        <v>4.312277</v>
       </c>
       <c r="F23" t="n">
-        <v>5.442003</v>
+        <v>5.607133</v>
       </c>
       <c r="G23" t="n">
-        <v>9.999656999999999</v>
+        <v>10.004662</v>
       </c>
       <c r="H23" t="n">
-        <v>9.273815000000001</v>
+        <v>11.705988</v>
       </c>
       <c r="I23" t="n">
-        <v>2.69255</v>
+        <v>2.653256</v>
       </c>
       <c r="J23" t="n">
-        <v>6.0834</v>
+        <v>5.713902</v>
       </c>
       <c r="K23" t="n">
-        <v>9.623631</v>
+        <v>9.627926</v>
       </c>
       <c r="L23" t="n">
-        <v>12.019349</v>
+        <v>12.495814</v>
       </c>
       <c r="M23" t="n">
-        <v>11495579.43</v>
+        <v>11905137.41</v>
       </c>
     </row>
     <row r="24">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-8.327569</v>
+        <v>-8.094274</v>
       </c>
       <c r="M24" t="n">
-        <v>-7957755</v>
+        <v>-7717230</v>
       </c>
     </row>
     <row r="25">
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-15.594481</v>
+        <v>-15.142879</v>
       </c>
       <c r="M25" t="n">
-        <v>-14901956.25</v>
+        <v>-14437500</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.072278</v>
+        <v>0.806886</v>
       </c>
       <c r="M26" t="n">
-        <v>1024660</v>
+        <v>769300</v>
       </c>
     </row>
     <row r="27">
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.341349</v>
+        <v>-4.746379</v>
       </c>
       <c r="M27" t="n">
-        <v>-3192965</v>
+        <v>-4525285</v>
       </c>
     </row>
     <row r="28">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.976856</v>
+        <v>-3.644242</v>
       </c>
       <c r="M28" t="n">
-        <v>-3800250</v>
+        <v>-3474487.5</v>
       </c>
     </row>
     <row r="29">
@@ -1310,40 +1310,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.42588</v>
+        <v>-1.659806</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.542014</v>
+        <v>-1.690687</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.487269</v>
+        <v>-1.69108</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.364267</v>
+        <v>-1.546379</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.315965</v>
+        <v>-1.526992</v>
       </c>
       <c r="G29" t="n">
         <v>3.525067</v>
       </c>
       <c r="H29" t="n">
-        <v>3.364295</v>
+        <v>3.205875</v>
       </c>
       <c r="I29" t="n">
-        <v>1.218246</v>
+        <v>1.196686</v>
       </c>
       <c r="J29" t="n">
-        <v>3.411191</v>
+        <v>3.320401</v>
       </c>
       <c r="K29" t="n">
         <v>4.248906</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.583066</v>
+        <v>-7.711093</v>
       </c>
       <c r="M29" t="n">
-        <v>-6293590.17</v>
+        <v>-7341933.96</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-36.110332</v>
+        <v>-33.349537</v>
       </c>
       <c r="M30" t="n">
-        <v>-34506731.25</v>
+        <v>-31796062.5</v>
       </c>
     </row>
     <row r="31">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.69701</v>
+        <v>-1.579809</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.835228</v>
+        <v>-1.609202</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.770072</v>
+        <v>-1.609576</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.623682</v>
+        <v>-1.471849</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.566195</v>
+        <v>-1.453396</v>
       </c>
       <c r="G31" t="n">
         <v>3.525067</v>
       </c>
       <c r="H31" t="n">
-        <v>3.364295</v>
+        <v>3.205875</v>
       </c>
       <c r="I31" t="n">
-        <v>1.218246</v>
+        <v>1.196686</v>
       </c>
       <c r="J31" t="n">
-        <v>3.411191</v>
+        <v>3.320401</v>
       </c>
       <c r="K31" t="n">
         <v>4.248906</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.834833</v>
+        <v>-7.339445</v>
       </c>
       <c r="M31" t="n">
-        <v>-7490313.29</v>
+        <v>-6988078.62</v>
       </c>
     </row>
     <row r="32">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.137593</v>
+        <v>-5.16049</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.556036</v>
+        <v>-5.256503</v>
       </c>
       <c r="D32" t="n">
-        <v>-5.358782</v>
+        <v>-5.257724</v>
       </c>
       <c r="E32" t="n">
-        <v>-4.915596</v>
+        <v>-4.807833</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.741556</v>
+        <v>-4.747557</v>
       </c>
       <c r="G32" t="n">
         <v>3.525067</v>
       </c>
       <c r="H32" t="n">
-        <v>3.364295</v>
+        <v>3.205875</v>
       </c>
       <c r="I32" t="n">
-        <v>1.218246</v>
+        <v>1.196686</v>
       </c>
       <c r="J32" t="n">
-        <v>3.411191</v>
+        <v>3.320401</v>
       </c>
       <c r="K32" t="n">
         <v>4.248906</v>
       </c>
       <c r="L32" t="n">
-        <v>-23.719463</v>
+        <v>-23.974495</v>
       </c>
       <c r="M32" t="n">
-        <v>-22676453</v>
+        <v>-22826747.27</v>
       </c>
     </row>
     <row r="33">
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-4.702678</v>
+        <v>-4.858649</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.773277</v>
+        <v>-5.451172</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.3188</v>
+        <v>-3.360778</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.898243</v>
+        <v>-2.91018</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.721959</v>
+        <v>-3.833186</v>
       </c>
       <c r="G33" t="n">
         <v>6.367617</v>
       </c>
       <c r="H33" t="n">
-        <v>5.703869</v>
+        <v>6.378588</v>
       </c>
       <c r="I33" t="n">
-        <v>1.488928</v>
+        <v>1.467599</v>
       </c>
       <c r="J33" t="n">
-        <v>3.969068</v>
+        <v>3.856079</v>
       </c>
       <c r="K33" t="n">
         <v>6.581907</v>
       </c>
       <c r="L33" t="n">
-        <v>-12.019349</v>
+        <v>-12.495814</v>
       </c>
       <c r="M33" t="n">
-        <v>-11495579.43</v>
+        <v>-11905137.41</v>
       </c>
     </row>
     <row r="34">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.204284</v>
+        <v>1.475355</v>
       </c>
       <c r="M34" t="n">
-        <v>1150804.2</v>
+        <v>1406630.4</v>
       </c>
     </row>
     <row r="35">
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-13.664341</v>
+        <v>-13.52057</v>
       </c>
       <c r="M35" t="n">
-        <v>-13057530</v>
+        <v>-12890760</v>
       </c>
     </row>
     <row r="36">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.177098</v>
+        <v>-1.079274</v>
       </c>
       <c r="M36" t="n">
-        <v>-1124825</v>
+        <v>-1029000</v>
       </c>
     </row>
     <row r="37">
@@ -1654,40 +1654,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7.050158</v>
+        <v>-6.564446</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.155998</v>
+        <v>-7.364995</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.975476</v>
+        <v>-4.540695</v>
       </c>
       <c r="E37" t="n">
-        <v>-4.344985</v>
+        <v>-3.931899</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.579884</v>
+        <v>-5.178958</v>
       </c>
       <c r="G37" t="n">
         <v>6.367617</v>
       </c>
       <c r="H37" t="n">
-        <v>5.703869</v>
+        <v>6.378588</v>
       </c>
       <c r="I37" t="n">
-        <v>1.488928</v>
+        <v>1.467599</v>
       </c>
       <c r="J37" t="n">
-        <v>3.969068</v>
+        <v>3.856079</v>
       </c>
       <c r="K37" t="n">
         <v>6.581907</v>
       </c>
       <c r="L37" t="n">
-        <v>-18.01916</v>
+        <v>-16.882902</v>
       </c>
       <c r="M37" t="n">
-        <v>-17233935.91</v>
+        <v>-16084848</v>
       </c>
     </row>
     <row r="38">
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.112138</v>
+        <v>1.175979</v>
       </c>
       <c r="M38" t="n">
-        <v>1062750</v>
+        <v>1121200</v>
       </c>
     </row>
     <row r="39">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-4.464789</v>
+        <v>-4.116346</v>
       </c>
       <c r="M39" t="n">
-        <v>-4266515</v>
+        <v>-3924600</v>
       </c>
     </row>
     <row r="40">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.01268</v>
+        <v>2.052446</v>
       </c>
       <c r="M40" t="n">
-        <v>1923300</v>
+        <v>1956840</v>
       </c>
     </row>
     <row r="41">
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.006384</v>
+        <v>-3.273694</v>
       </c>
       <c r="M41" t="n">
-        <v>-2872875</v>
+        <v>-3121200</v>
       </c>
     </row>
     <row r="42">
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7115010000000001</v>
+        <v>0.80291</v>
       </c>
       <c r="M42" t="n">
-        <v>679904.4</v>
+        <v>765508.8</v>
       </c>
     </row>
     <row r="43">
@@ -1912,40 +1912,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.690152</v>
+        <v>-0.690496</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.885822</v>
+        <v>-0.876601</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.623556</v>
+        <v>-0.612579</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.55271</v>
+        <v>-0.533995</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.590161</v>
+        <v>-0.588579</v>
       </c>
       <c r="G43" t="n">
         <v>3.048712</v>
       </c>
       <c r="H43" t="n">
-        <v>3.45334</v>
+        <v>3.455654</v>
       </c>
       <c r="I43" t="n">
-        <v>0.912658</v>
+        <v>0.901205</v>
       </c>
       <c r="J43" t="n">
-        <v>2.469399</v>
+        <v>2.383728</v>
       </c>
       <c r="K43" t="n">
         <v>3.404792</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.684183</v>
+        <v>-3.70912</v>
       </c>
       <c r="M43" t="n">
-        <v>-3517702.5</v>
+        <v>-3536605.44</v>
       </c>
     </row>
     <row r="44">
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-17.31859</v>
+        <v>-17.515867</v>
       </c>
       <c r="M44" t="n">
-        <v>-16549500</v>
+        <v>-16699950</v>
       </c>
     </row>
     <row r="45">
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.412219</v>
+        <v>-1.222674</v>
       </c>
       <c r="M45" t="n">
-        <v>-1349505</v>
+        <v>-1165720</v>
       </c>
     </row>
     <row r="46">
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-33.247597</v>
+        <v>-37.281704</v>
       </c>
       <c r="M46" t="n">
-        <v>-31771125</v>
+        <v>-35545062.5</v>
       </c>
     </row>
     <row r="47">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>157.81198</v>
+        <v>152.38097</v>
       </c>
       <c r="M47" t="n">
-        <v>150803812.5</v>
+        <v>145282813.21</v>
       </c>
     </row>
     <row r="48">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-113.08925</v>
+        <v>-112.4485</v>
       </c>
       <c r="M48" t="n">
-        <v>-108067141.12</v>
+        <v>-107210469.26</v>
       </c>
     </row>
     <row r="49">
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>19.30051</v>
+        <v>18.467102</v>
       </c>
       <c r="M49" t="n">
-        <v>18443406.25</v>
+        <v>17606875</v>
       </c>
     </row>
     <row r="50">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.556064</v>
+        <v>0.617148</v>
       </c>
       <c r="M50" t="n">
-        <v>531370</v>
+        <v>588400</v>
       </c>
     </row>
     <row r="51">
@@ -2256,40 +2256,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.544319</v>
+        <v>-0.67161</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.522703</v>
+        <v>-0.665279</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.022277</v>
+        <v>-0.006672</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.327143</v>
+        <v>-0.385299</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.232541</v>
+        <v>-0.279541</v>
       </c>
       <c r="G51" t="n">
-        <v>7.355916</v>
+        <v>7.454985</v>
       </c>
       <c r="H51" t="n">
-        <v>6.233903</v>
+        <v>6.593361</v>
       </c>
       <c r="I51" t="n">
-        <v>0.099749</v>
+        <v>0.024678</v>
       </c>
       <c r="J51" t="n">
-        <v>4.471402</v>
+        <v>4.324067</v>
       </c>
       <c r="K51" t="n">
-        <v>4.104233</v>
+        <v>4.065423</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.204284</v>
+        <v>-1.475355</v>
       </c>
       <c r="M51" t="n">
-        <v>-1150804.2</v>
+        <v>-1406630.4</v>
       </c>
     </row>
     <row r="52">
@@ -2299,40 +2299,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.572947</v>
+        <v>5.480769</v>
       </c>
       <c r="C52" t="n">
-        <v>2.70426</v>
+        <v>3.084782</v>
       </c>
       <c r="D52" t="n">
-        <v>5.006292</v>
+        <v>4.866406</v>
       </c>
       <c r="E52" t="n">
-        <v>4.480568</v>
+        <v>4.59866</v>
       </c>
       <c r="F52" t="n">
-        <v>5.024047</v>
+        <v>4.926096</v>
       </c>
       <c r="G52" t="n">
-        <v>6.637565</v>
+        <v>6.638538</v>
       </c>
       <c r="H52" t="n">
-        <v>2.842456</v>
+        <v>3.336021</v>
       </c>
       <c r="I52" t="n">
-        <v>1.97561</v>
+        <v>1.964018</v>
       </c>
       <c r="J52" t="n">
-        <v>5.397331</v>
+        <v>5.631537</v>
       </c>
       <c r="K52" t="n">
-        <v>7.814949</v>
+        <v>7.817436</v>
       </c>
       <c r="L52" t="n">
-        <v>13.664341</v>
+        <v>13.52057</v>
       </c>
       <c r="M52" t="n">
-        <v>13057530</v>
+        <v>12890760</v>
       </c>
     </row>
     <row r="53">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11.465303</v>
+        <v>11.349067</v>
       </c>
       <c r="C53" t="n">
-        <v>11.190293</v>
+        <v>11.006648</v>
       </c>
       <c r="D53" t="n">
-        <v>13.082377</v>
+        <v>12.984319</v>
       </c>
       <c r="E53" t="n">
-        <v>9.705377</v>
+        <v>9.566896</v>
       </c>
       <c r="F53" t="n">
-        <v>11.555705</v>
+        <v>11.40221</v>
       </c>
       <c r="G53" t="n">
         <v>3.712496</v>
       </c>
       <c r="H53" t="n">
-        <v>3.197741</v>
+        <v>3.214654</v>
       </c>
       <c r="I53" t="n">
-        <v>1.403551</v>
+        <v>1.415244</v>
       </c>
       <c r="J53" t="n">
-        <v>3.178447</v>
+        <v>3.164038</v>
       </c>
       <c r="K53" t="n">
         <v>4.88681</v>
       </c>
       <c r="L53" t="n">
-        <v>50.26111</v>
+        <v>50.063362</v>
       </c>
       <c r="M53" t="n">
-        <v>48029095.01</v>
+        <v>47731330.75</v>
       </c>
     </row>
     <row r="54">
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.193744</v>
+        <v>0.176687</v>
       </c>
       <c r="C54" t="n">
-        <v>0.078648</v>
+        <v>0.094259</v>
       </c>
       <c r="D54" t="n">
-        <v>0.288549</v>
+        <v>0.261673</v>
       </c>
       <c r="E54" t="n">
-        <v>0.276981</v>
+        <v>0.250476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.287465</v>
+        <v>0.260879</v>
       </c>
       <c r="G54" t="n">
-        <v>2.678725</v>
+        <v>2.681007</v>
       </c>
       <c r="H54" t="n">
-        <v>0.959637</v>
+        <v>1.277001</v>
       </c>
       <c r="I54" t="n">
-        <v>1.321844</v>
+        <v>1.322997</v>
       </c>
       <c r="J54" t="n">
-        <v>3.873212</v>
+        <v>3.842591</v>
       </c>
       <c r="K54" t="n">
-        <v>5.190784</v>
+        <v>5.186369</v>
       </c>
       <c r="L54" t="n">
-        <v>1.177098</v>
+        <v>1.079274</v>
       </c>
       <c r="M54" t="n">
-        <v>1124825</v>
+        <v>1029000</v>
       </c>
     </row>
     <row r="55">
@@ -2428,40 +2428,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22.54309</v>
+        <v>21.142475</v>
       </c>
       <c r="C55" t="n">
-        <v>24.895578</v>
+        <v>24.252825</v>
       </c>
       <c r="D55" t="n">
-        <v>19.721825</v>
+        <v>18.172628</v>
       </c>
       <c r="E55" t="n">
-        <v>22.321423</v>
+        <v>20.588444</v>
       </c>
       <c r="F55" t="n">
-        <v>25.77281</v>
+        <v>23.776016</v>
       </c>
       <c r="G55" t="n">
-        <v>20.360643</v>
+        <v>20.508535</v>
       </c>
       <c r="H55" t="n">
-        <v>19.84365</v>
+        <v>21.004602</v>
       </c>
       <c r="I55" t="n">
-        <v>5.901823</v>
+        <v>5.873578</v>
       </c>
       <c r="J55" t="n">
-        <v>20.390226</v>
+        <v>20.191431</v>
       </c>
       <c r="K55" t="n">
-        <v>30.401031</v>
+        <v>30.216797</v>
       </c>
       <c r="L55" t="n">
-        <v>18.01916</v>
+        <v>16.882902</v>
       </c>
       <c r="M55" t="n">
-        <v>17233935.91</v>
+        <v>16084848</v>
       </c>
     </row>
     <row r="56">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.324666</v>
+        <v>-0.342651</v>
       </c>
       <c r="C56" t="n">
-        <v>0.352744</v>
+        <v>-0.426215</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.033481</v>
+        <v>-0.023516</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.169184</v>
+        <v>-0.20661</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.341369</v>
+        <v>-0.36391</v>
       </c>
       <c r="G56" t="n">
-        <v>4.75106</v>
+        <v>4.771763</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.555483</v>
+        <v>5.299415</v>
       </c>
       <c r="I56" t="n">
-        <v>0.162337</v>
+        <v>0.109117</v>
       </c>
       <c r="J56" t="n">
-        <v>2.503999</v>
+        <v>2.908986</v>
       </c>
       <c r="K56" t="n">
-        <v>6.524184</v>
+        <v>6.639741</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.112138</v>
+        <v>-1.175979</v>
       </c>
       <c r="M56" t="n">
-        <v>-1062750</v>
+        <v>-1121200</v>
       </c>
     </row>
     <row r="57">
@@ -2514,40 +2514,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.595815</v>
+        <v>2.378599</v>
       </c>
       <c r="C57" t="n">
-        <v>2.036244</v>
+        <v>2.094365</v>
       </c>
       <c r="D57" t="n">
-        <v>2.670515</v>
+        <v>2.398438</v>
       </c>
       <c r="E57" t="n">
-        <v>2.642185</v>
+        <v>2.305272</v>
       </c>
       <c r="F57" t="n">
-        <v>2.52832</v>
+        <v>2.307745</v>
       </c>
       <c r="G57" t="n">
-        <v>9.462052999999999</v>
+        <v>9.463139999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>6.550325</v>
+        <v>7.43943</v>
       </c>
       <c r="I57" t="n">
-        <v>3.225282</v>
+        <v>3.179426</v>
       </c>
       <c r="J57" t="n">
-        <v>9.740853</v>
+        <v>9.272588000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>12.036277</v>
+        <v>12.029079</v>
       </c>
       <c r="L57" t="n">
-        <v>4.464789</v>
+        <v>4.116346</v>
       </c>
       <c r="M57" t="n">
-        <v>4266515</v>
+        <v>3924600</v>
       </c>
     </row>
     <row r="58">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.242045</v>
+        <v>-1.252374</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.741043</v>
+        <v>-1.874554</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180252</v>
+        <v>0.220061</v>
       </c>
       <c r="E58" t="n">
-        <v>1.839612</v>
+        <v>1.960126</v>
       </c>
       <c r="F58" t="n">
-        <v>0.873187</v>
+        <v>0.908799</v>
       </c>
       <c r="G58" t="n">
-        <v>10.04327</v>
+        <v>9.992819000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>12.42421</v>
+        <v>13.354429</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.482924</v>
+        <v>-0.5850649999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>-15.044793</v>
+        <v>-15.812583</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.221330999999999</v>
+        <v>-9.500635000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.01268</v>
+        <v>-2.052446</v>
       </c>
       <c r="M58" t="n">
-        <v>-1923300</v>
+        <v>-1956840</v>
       </c>
     </row>
     <row r="59">
@@ -2600,40 +2600,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.7889429999999999</v>
+        <v>0.853858</v>
       </c>
       <c r="C59" t="n">
-        <v>1.039858</v>
+        <v>1.359431</v>
       </c>
       <c r="D59" t="n">
-        <v>0.397902</v>
+        <v>0.432823</v>
       </c>
       <c r="E59" t="n">
-        <v>0.154808</v>
+        <v>0.200962</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.136884</v>
+        <v>-0.147831</v>
       </c>
       <c r="G59" t="n">
-        <v>4.270845</v>
+        <v>4.271435</v>
       </c>
       <c r="H59" t="n">
-        <v>4.967792</v>
+        <v>6.071814</v>
       </c>
       <c r="I59" t="n">
-        <v>0.713683</v>
+        <v>0.7214469999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>0.847584</v>
+        <v>1.016404</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.967766</v>
+        <v>-0.968911</v>
       </c>
       <c r="L59" t="n">
-        <v>3.006384</v>
+        <v>3.273694</v>
       </c>
       <c r="M59" t="n">
-        <v>2872875</v>
+        <v>3121200</v>
       </c>
     </row>
     <row r="60">
@@ -2643,40 +2643,40 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.270689</v>
+        <v>-0.305499</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.049556</v>
+        <v>-0.37172</v>
       </c>
       <c r="D60" t="n">
-        <v>0.048746</v>
+        <v>0.063219</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.070411</v>
+        <v>-0.079485</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.148592</v>
+        <v>-0.168343</v>
       </c>
       <c r="G60" t="n">
-        <v>6.191662</v>
+        <v>6.231158</v>
       </c>
       <c r="H60" t="n">
-        <v>1.000358</v>
+        <v>6.76937</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.36943</v>
+        <v>-0.429649</v>
       </c>
       <c r="J60" t="n">
-        <v>1.62892</v>
+        <v>1.639117</v>
       </c>
       <c r="K60" t="n">
-        <v>4.438949</v>
+        <v>4.498687</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.7115010000000001</v>
+        <v>-0.80291</v>
       </c>
       <c r="M60" t="n">
-        <v>-679904.4</v>
+        <v>-765508.8</v>
       </c>
     </row>
     <row r="61">
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>9.951186</v>
+        <v>10.281117</v>
       </c>
       <c r="M61" t="n">
-        <v>9509270.640000001</v>
+        <v>9802206.25</v>
       </c>
     </row>
     <row r="62">
@@ -2729,40 +2729,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.10353</v>
+        <v>2.104596</v>
       </c>
       <c r="C62" t="n">
-        <v>2.173582</v>
+        <v>2.661679</v>
       </c>
       <c r="D62" t="n">
-        <v>1.824621</v>
+        <v>1.787586</v>
       </c>
       <c r="E62" t="n">
-        <v>1.495959</v>
+        <v>1.407558</v>
       </c>
       <c r="F62" t="n">
-        <v>1.877144</v>
+        <v>1.871488</v>
       </c>
       <c r="G62" t="n">
-        <v>9.292235</v>
+        <v>9.292312000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>8.473615000000001</v>
+        <v>10.492622</v>
       </c>
       <c r="I62" t="n">
-        <v>2.670577</v>
+        <v>2.629834</v>
       </c>
       <c r="J62" t="n">
-        <v>6.683643</v>
+        <v>6.283277</v>
       </c>
       <c r="K62" t="n">
-        <v>10.829725</v>
+        <v>10.826114</v>
       </c>
       <c r="L62" t="n">
-        <v>3.684183</v>
+        <v>3.70912</v>
       </c>
       <c r="M62" t="n">
-        <v>3517702.5</v>
+        <v>3536605.44</v>
       </c>
     </row>
     <row r="63">
@@ -2772,40 +2772,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8.784528</v>
+        <v>8.830819999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>6.931368</v>
+        <v>8.481275</v>
       </c>
       <c r="D63" t="n">
-        <v>7.963106</v>
+        <v>7.834582</v>
       </c>
       <c r="E63" t="n">
-        <v>7.049864</v>
+        <v>6.606101</v>
       </c>
       <c r="F63" t="n">
-        <v>7.987495</v>
+        <v>7.997335</v>
       </c>
       <c r="G63" t="n">
-        <v>8.255027</v>
+        <v>8.256487</v>
       </c>
       <c r="H63" t="n">
-        <v>5.748312</v>
+        <v>7.079926</v>
       </c>
       <c r="I63" t="n">
-        <v>2.479383</v>
+        <v>2.44071</v>
       </c>
       <c r="J63" t="n">
-        <v>6.700433</v>
+        <v>6.244594</v>
       </c>
       <c r="K63" t="n">
-        <v>9.803003</v>
+        <v>9.796481</v>
       </c>
       <c r="L63" t="n">
-        <v>17.31859</v>
+        <v>17.515867</v>
       </c>
       <c r="M63" t="n">
-        <v>16549500</v>
+        <v>16699950</v>
       </c>
     </row>
     <row r="64">
@@ -2815,40 +2815,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.051945</v>
+        <v>0.904904</v>
       </c>
       <c r="C64" t="n">
-        <v>0.590506</v>
+        <v>0.605978</v>
       </c>
       <c r="D64" t="n">
-        <v>0.980276</v>
+        <v>0.825715</v>
       </c>
       <c r="E64" t="n">
-        <v>1.293823</v>
+        <v>1.115582</v>
       </c>
       <c r="F64" t="n">
-        <v>1.172231</v>
+        <v>1.005426</v>
       </c>
       <c r="G64" t="n">
-        <v>12.122813</v>
+        <v>12.120418</v>
       </c>
       <c r="H64" t="n">
-        <v>6.005592</v>
+        <v>7.24678</v>
       </c>
       <c r="I64" t="n">
-        <v>3.743</v>
+        <v>3.685118</v>
       </c>
       <c r="J64" t="n">
-        <v>15.080208</v>
+        <v>15.107115</v>
       </c>
       <c r="K64" t="n">
-        <v>17.642994</v>
+        <v>17.643944</v>
       </c>
       <c r="L64" t="n">
-        <v>1.412219</v>
+        <v>1.222674</v>
       </c>
       <c r="M64" t="n">
-        <v>1349505</v>
+        <v>1165720</v>
       </c>
     </row>
     <row r="65">
@@ -2858,40 +2858,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12.938582</v>
+        <v>15.050917</v>
       </c>
       <c r="C65" t="n">
-        <v>14.096321</v>
+        <v>12.576729</v>
       </c>
       <c r="D65" t="n">
-        <v>13.819779</v>
+        <v>15.589662</v>
       </c>
       <c r="E65" t="n">
-        <v>14.420326</v>
+        <v>16.09694</v>
       </c>
       <c r="F65" t="n">
-        <v>14.764673</v>
+        <v>15.896584</v>
       </c>
       <c r="G65" t="n">
-        <v>6.333431</v>
+        <v>6.611395</v>
       </c>
       <c r="H65" t="n">
-        <v>6.089469</v>
+        <v>4.932546</v>
       </c>
       <c r="I65" t="n">
-        <v>2.241375</v>
+        <v>2.281776</v>
       </c>
       <c r="J65" t="n">
-        <v>7.1392</v>
+        <v>7.148883</v>
       </c>
       <c r="K65" t="n">
-        <v>9.438971</v>
+        <v>9.148808000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>33.247597</v>
+        <v>37.281704</v>
       </c>
       <c r="M65" t="n">
-        <v>31771125</v>
+        <v>35545062.5</v>
       </c>
     </row>
     <row r="66">
@@ -2901,40 +2901,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-14.514266</v>
+        <v>-16.46741</v>
       </c>
       <c r="C66" t="n">
-        <v>-14.47764</v>
+        <v>-13.549887</v>
       </c>
       <c r="D66" t="n">
-        <v>-17.856258</v>
+        <v>-17.417513</v>
       </c>
       <c r="E66" t="n">
-        <v>-21.864681</v>
+        <v>-19.654425</v>
       </c>
       <c r="F66" t="n">
-        <v>-19.035683</v>
+        <v>-16.220692</v>
       </c>
       <c r="G66" t="n">
-        <v>1.496813</v>
+        <v>1.769785</v>
       </c>
       <c r="H66" t="n">
-        <v>1.317624</v>
+        <v>1.300182</v>
       </c>
       <c r="I66" t="n">
-        <v>0.610132</v>
+        <v>0.623717</v>
       </c>
       <c r="J66" t="n">
-        <v>2.280541</v>
+        <v>2.135602</v>
       </c>
       <c r="K66" t="n">
-        <v>2.563832</v>
+        <v>2.283995</v>
       </c>
       <c r="L66" t="n">
-        <v>-157.812</v>
+        <v>-152.38097</v>
       </c>
       <c r="M66" t="n">
-        <v>-150803812.5</v>
+        <v>-145282813.21</v>
       </c>
     </row>
     <row r="67">
@@ -2944,126 +2944,169 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>30.337336</v>
+        <v>31.88104</v>
       </c>
       <c r="C67" t="n">
-        <v>31.915974</v>
+        <v>27.482403</v>
       </c>
       <c r="D67" t="n">
-        <v>33.56083</v>
+        <v>33.60789</v>
       </c>
       <c r="E67" t="n">
-        <v>37.587967</v>
+        <v>36.87327</v>
       </c>
       <c r="F67" t="n">
-        <v>36.316883</v>
+        <v>34.27955</v>
       </c>
       <c r="G67" t="n">
-        <v>4.365849</v>
+        <v>4.643065</v>
       </c>
       <c r="H67" t="n">
-        <v>4.053411</v>
+        <v>3.573553</v>
       </c>
       <c r="I67" t="n">
-        <v>1.60024</v>
+        <v>1.630871</v>
       </c>
       <c r="J67" t="n">
-        <v>5.470943</v>
+        <v>5.429359</v>
       </c>
       <c r="K67" t="n">
-        <v>6.825718</v>
+        <v>6.540906</v>
       </c>
       <c r="L67" t="n">
-        <v>113.08925</v>
+        <v>112.4485</v>
       </c>
       <c r="M67" t="n">
-        <v>108067141.12</v>
+        <v>107210469.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>US LONG BOND(CBT) Dec24</t>
+          <t>US DOLLARS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-11.829655</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>-13.558836</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-12.849548</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.350856</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-13.374022</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>9.975068</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>10.089915</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3.589986</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>9.680427</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>14.728357</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-19.30051</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>-18443406.25</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>US LONG BOND(CBT) Dec24</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-11.559242</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-9.006914</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-12.353561</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-10.953397</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-12.411957</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10.250771</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7.131428</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.650274</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9.820660999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14.421086</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-18.467102</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-17606875</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>WTI CRUDE FUTURE  Oct24</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>-0.21151</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.1264</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.011413</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.103192</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-0.186912</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6.190405</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3.264789</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.110677</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.054624</v>
-      </c>
-      <c r="K69" t="n">
-        <v>7.144537</v>
-      </c>
-      <c r="L69" t="n">
-        <v>-0.556064</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-531370</v>
+      <c r="B70" t="n">
+        <v>-0.233958</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.33837</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.004396</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.09499199999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.206485</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.208337</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.016818000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.038868</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.54853</v>
+      </c>
+      <c r="K70" t="n">
+        <v>7.178853</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.617148</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-588400</v>
       </c>
     </row>
   </sheetData>
